--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sost-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sost-Lrp6.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>1.223382135985666</v>
+        <v>1.647916188682667</v>
       </c>
       <c r="R2">
-        <v>11.010439223871</v>
+        <v>14.831245698144</v>
       </c>
       <c r="S2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="T2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
         <v>5.840509204680332</v>
@@ -632,10 +632,10 @@
         <v>52.564582842123</v>
       </c>
       <c r="S3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="T3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,13 +679,13 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
         <v>2.090667889865</v>
@@ -694,10 +694,10 @@
         <v>18.816011008785</v>
       </c>
       <c r="S4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="T4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
     </row>
   </sheetData>
